--- a/new-stats/western-united-fc.xlsx
+++ b/new-stats/western-united-fc.xlsx
@@ -1908,22 +1908,62 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>27/04/2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="M26" t="n">
+        <v>15</v>
+      </c>
+      <c r="N26" t="n">
+        <v>14</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>

--- a/new-stats/western-united-fc.xlsx
+++ b/new-stats/western-united-fc.xlsx
@@ -1966,22 +1966,62 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>03/05/2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Auckland FC</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M27" t="n">
+        <v>10</v>
+      </c>
+      <c r="N27" t="n">
+        <v>12</v>
+      </c>
+      <c r="O27" t="n">
+        <v>7</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
